--- a/wells/well_sheet.xlsx
+++ b/wells/well_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001_GD_Thesis\aem_model_gd\wells\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001_GD_Thesis\AEM_GD_RBF\wells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A75C9B-109E-4017-B2FB-D78027C8CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05AFFC-B748-4998-B4DC-E42343EF23D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1725" windowWidth="16785" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14610" yWindow="2010" windowWidth="12855" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -408,13 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -435,27 +438,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>275</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
